--- a/documentacion/tablas.xlsx
+++ b/documentacion/tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Herd\ggrc_gestion\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F760E521-079B-462E-AEE8-2F0E0F944C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEF2E27-F7B6-4570-8AC8-AC33F65F9AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86AA3994-8391-48BC-ACCC-EF9042BB5443}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>fecha_tdrs_elevacion</t>
   </si>
   <si>
-    <t>gde_firma_dieccion_tdrs</t>
-  </si>
-  <si>
     <t>monto_solicitud</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>fecha_apobacion_if</t>
   </si>
   <si>
-    <t>gde_informe_final</t>
-  </si>
-  <si>
     <t>fecha_envio_biblioteca</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>localidad</t>
+  </si>
+  <si>
+    <t>gde_tdrs_firma_dieccion</t>
+  </si>
+  <si>
+    <t>gde_aprobacion_if</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,13 +537,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -565,21 +565,21 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -614,122 +614,122 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/documentacion/tablas.xlsx
+++ b/documentacion/tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Herd\ggrc_gestion\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEF2E27-F7B6-4570-8AC8-AC33F65F9AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F5AFF8-7377-4D95-A188-C8347EF84B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86AA3994-8391-48BC-ACCC-EF9042BB5443}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>expedientes</t>
   </si>
@@ -122,12 +122,6 @@
     <t>poveedor_id</t>
   </si>
   <si>
-    <t>tipo_contrato_id</t>
-  </si>
-  <si>
-    <t>asignacion_presupuetaria_id</t>
-  </si>
-  <si>
     <t>informes_id</t>
   </si>
   <si>
@@ -140,24 +134,107 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>localidad</t>
-  </si>
-  <si>
     <t>gde_tdrs_firma_dieccion</t>
   </si>
   <si>
     <t>gde_aprobacion_if</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>latitud</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>area_id</t>
+  </si>
+  <si>
+    <t>direccion_id</t>
+  </si>
+  <si>
+    <t>contraparte</t>
+  </si>
+  <si>
+    <t>dependencia</t>
+  </si>
+  <si>
+    <t>proveedor</t>
+  </si>
+  <si>
+    <t>apelllido</t>
+  </si>
+  <si>
+    <t>provincias</t>
+  </si>
+  <si>
+    <t>localidades</t>
+  </si>
+  <si>
+    <t>direcciones</t>
+  </si>
+  <si>
+    <t>areas</t>
+  </si>
+  <si>
+    <t>asignacion_id</t>
+  </si>
+  <si>
+    <t>tipo_id</t>
+  </si>
+  <si>
+    <t>asignaciones</t>
+  </si>
+  <si>
+    <t>tipos</t>
+  </si>
+  <si>
+    <t>informes</t>
+  </si>
+  <si>
+    <t>expte_informes</t>
+  </si>
+  <si>
+    <t>informe_id</t>
+  </si>
+  <si>
+    <t>expte_id</t>
+  </si>
+  <si>
+    <t>acciones</t>
+  </si>
+  <si>
+    <t>accion</t>
+  </si>
+  <si>
+    <t>razon</t>
+  </si>
+  <si>
+    <t>usuarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -185,8 +262,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,32 +599,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D287A8-148E-4068-919F-9C774DAC1CF6}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -559,85 +671,208 @@
       <c r="G2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -659,7 +894,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -704,35 +939,46 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>